--- a/Disagreement/相关系数表.xlsx
+++ b/Disagreement/相关系数表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Presentation1101\Disagreement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FB5C33-9691-41F5-9E68-13D4497D8DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06B5FA5-AF08-4E58-ADE4-D3B15BD78242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4308" yWindow="5508" windowWidth="17280" windowHeight="7620" xr2:uid="{F473FEE1-5BB8-4C5A-839D-C7C71FD075F2}"/>
+    <workbookView xWindow="3588" yWindow="4728" windowWidth="17280" windowHeight="7620" xr2:uid="{F473FEE1-5BB8-4C5A-839D-C7C71FD075F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>log(Size)</t>
+    <t>Ret</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C72646-429D-4EE2-AEA1-E0444FB4788A}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -563,19 +563,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="C7" s="1">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="D7" s="1">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F7" s="1">
-        <v>0.49</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -683,19 +683,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="1">
-        <v>0.37</v>
+        <v>0.02</v>
       </c>
       <c r="C13" s="1">
-        <v>0.01</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.3</v>
+        <v>-0.06</v>
       </c>
       <c r="F13" s="1">
-        <v>0.44</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
